--- a/rhla_analysis/rhla1_6_zipf_result/k3.xlsx
+++ b/rhla_analysis/rhla1_6_zipf_result/k3.xlsx
@@ -457,21 +457,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1243906490878592</v>
+        <v>0.1243906490878593</v>
       </c>
       <c r="B2" t="n">
-        <v>4.897707674962567</v>
+        <v>4.897707674962566</v>
       </c>
       <c r="C2" t="n">
         <v>0.08621860149355058</v>
       </c>
       <c r="D2" t="n">
-        <v>39.37360011284476</v>
+        <v>39.37360011284473</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.218995603447732</v>
+        <v>0.2189956034477319</v>
       </c>
       <c r="B3" t="n">
         <v>10.78212308554477</v>
@@ -480,12 +480,12 @@
         <v>0.07501697216564834</v>
       </c>
       <c r="D3" t="n">
-        <v>49.23442715651668</v>
+        <v>49.2344271565167</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.181267620067506</v>
+        <v>2.181267620067512</v>
       </c>
       <c r="B4" t="n">
         <v>51.23266192702365</v>
@@ -494,12 +494,12 @@
         <v>0.09368635437881874</v>
       </c>
       <c r="D4" t="n">
-        <v>23.48756358719436</v>
+        <v>23.4875635871943</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5285862605701204</v>
+        <v>0.5285862605701178</v>
       </c>
       <c r="B5" t="n">
         <v>6.680988344470555</v>
@@ -508,12 +508,12 @@
         <v>0.07331975560081466</v>
       </c>
       <c r="D5" t="n">
-        <v>12.63935301168177</v>
+        <v>12.63935301168183</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4362872673747352</v>
+        <v>0.4362872673747375</v>
       </c>
       <c r="B6" t="n">
         <v>16.26832670698832</v>
@@ -522,12 +522,12 @@
         <v>0.06958587915818058</v>
       </c>
       <c r="D6" t="n">
-        <v>37.28810791311761</v>
+        <v>37.28810791311741</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.117213159202802</v>
+        <v>0.1172131592028034</v>
       </c>
       <c r="B7" t="n">
         <v>4.111071336674444</v>
@@ -536,12 +536,12 @@
         <v>0.05940257976917854</v>
       </c>
       <c r="D7" t="n">
-        <v>35.07346243915732</v>
+        <v>35.07346243915691</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0751168079239639</v>
+        <v>0.07511680792396451</v>
       </c>
       <c r="B8" t="n">
         <v>6.188096664570016</v>
@@ -550,12 +550,12 @@
         <v>0.09063136456211812</v>
       </c>
       <c r="D8" t="n">
-        <v>82.3796542424146</v>
+        <v>82.37965424241393</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1205008076349848</v>
+        <v>0.1205008076349854</v>
       </c>
       <c r="B9" t="n">
         <v>7.621639871131129</v>
@@ -564,12 +564,12 @@
         <v>0.08553971486761711</v>
       </c>
       <c r="D9" t="n">
-        <v>63.24969948930324</v>
+        <v>63.24969948930293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.026470211001258</v>
+        <v>1.026470211001253</v>
       </c>
       <c r="B10" t="n">
         <v>67.94332321723036</v>
@@ -578,12 +578,12 @@
         <v>0.06143923964697896</v>
       </c>
       <c r="D10" t="n">
-        <v>66.19122745993367</v>
+        <v>66.19122745993397</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.02687810191146366</v>
+        <v>0.02687810191146368</v>
       </c>
       <c r="B11" t="n">
         <v>1.581364614625015</v>
@@ -592,7 +592,7 @@
         <v>0.07875084860828242</v>
       </c>
       <c r="D11" t="n">
-        <v>58.83468333567686</v>
+        <v>58.83468333567681</v>
       </c>
     </row>
   </sheetData>
